--- a/statistics/2024_principle_data.xlsx
+++ b/statistics/2024_principle_data.xlsx
@@ -13998,13 +13998,13 @@
         </is>
       </c>
       <c r="C234" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D234" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E234" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F234" t="n">
         <v>0</v>
@@ -14013,10 +14013,10 @@
         <v>0</v>
       </c>
       <c r="H234" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I234" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J234" t="n">
         <v>0</v>
@@ -14043,7 +14043,7 @@
         <v>0</v>
       </c>
       <c r="R234" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="235">

--- a/statistics/2024_principle_data.xlsx
+++ b/statistics/2024_principle_data.xlsx
@@ -14059,7 +14059,7 @@
         <v>0</v>
       </c>
       <c r="D235" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E235" t="n">
         <v>0</v>
@@ -14074,7 +14074,7 @@
         <v>0</v>
       </c>
       <c r="I235" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J235" t="n">
         <v>0</v>
@@ -14101,7 +14101,7 @@
         <v>0</v>
       </c>
       <c r="R235" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="236">

--- a/statistics/2024_principle_data.xlsx
+++ b/statistics/2024_principle_data.xlsx
@@ -14117,13 +14117,13 @@
         <v>0</v>
       </c>
       <c r="D236" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E236" t="n">
         <v>0</v>
       </c>
       <c r="F236" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G236" t="n">
         <v>0</v>
@@ -14132,7 +14132,7 @@
         <v>0</v>
       </c>
       <c r="I236" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J236" t="n">
         <v>0</v>
@@ -14159,7 +14159,7 @@
         <v>0</v>
       </c>
       <c r="R236" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="237">

--- a/statistics/2024_principle_data.xlsx
+++ b/statistics/2024_principle_data.xlsx
@@ -14175,13 +14175,13 @@
         <v>0</v>
       </c>
       <c r="D237" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E237" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F237" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G237" t="n">
         <v>0</v>
@@ -14190,7 +14190,7 @@
         <v>0</v>
       </c>
       <c r="I237" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J237" t="n">
         <v>0</v>
@@ -14202,7 +14202,7 @@
         <v>0</v>
       </c>
       <c r="M237" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N237" t="n">
         <v>0</v>
@@ -14217,7 +14217,7 @@
         <v>0</v>
       </c>
       <c r="R237" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="238">

--- a/statistics/2024_principle_data.xlsx
+++ b/statistics/2024_principle_data.xlsx
@@ -14230,25 +14230,25 @@
         </is>
       </c>
       <c r="C238" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D238" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E238" t="n">
         <v>0</v>
       </c>
       <c r="F238" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G238" t="n">
         <v>0</v>
       </c>
       <c r="H238" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I238" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J238" t="n">
         <v>0</v>
@@ -14260,13 +14260,13 @@
         <v>0</v>
       </c>
       <c r="M238" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N238" t="n">
         <v>0</v>
       </c>
       <c r="O238" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P238" t="n">
         <v>0</v>
@@ -14275,7 +14275,7 @@
         <v>0</v>
       </c>
       <c r="R238" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="239">
@@ -14404,25 +14404,25 @@
         </is>
       </c>
       <c r="C241" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D241" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E241" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F241" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G241" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H241" t="n">
         <v>0</v>
       </c>
       <c r="I241" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J241" t="n">
         <v>0</v>
@@ -14434,13 +14434,13 @@
         <v>0</v>
       </c>
       <c r="M241" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N241" t="n">
         <v>0</v>
       </c>
       <c r="O241" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P241" t="n">
         <v>0</v>
@@ -14449,7 +14449,7 @@
         <v>0</v>
       </c>
       <c r="R241" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="242">

--- a/statistics/2024_principle_data.xlsx
+++ b/statistics/2024_principle_data.xlsx
@@ -14465,10 +14465,10 @@
         <v>0</v>
       </c>
       <c r="D242" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E242" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F242" t="n">
         <v>0</v>
@@ -14480,7 +14480,7 @@
         <v>0</v>
       </c>
       <c r="I242" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J242" t="n">
         <v>0</v>
@@ -14507,7 +14507,7 @@
         <v>0</v>
       </c>
       <c r="R242" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="243">

--- a/statistics/2024_principle_data.xlsx
+++ b/statistics/2024_principle_data.xlsx
@@ -14578,10 +14578,10 @@
         </is>
       </c>
       <c r="C244" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D244" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E244" t="n">
         <v>0</v>
@@ -14623,7 +14623,7 @@
         <v>0</v>
       </c>
       <c r="R244" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="245">

--- a/statistics/2024_principle_data.xlsx
+++ b/statistics/2024_principle_data.xlsx
@@ -14636,16 +14636,16 @@
         </is>
       </c>
       <c r="C245" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D245" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E245" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F245" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G245" t="n">
         <v>0</v>
@@ -14654,7 +14654,7 @@
         <v>0</v>
       </c>
       <c r="I245" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J245" t="n">
         <v>0</v>
@@ -14672,7 +14672,7 @@
         <v>0</v>
       </c>
       <c r="O245" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P245" t="n">
         <v>0</v>
@@ -14681,7 +14681,7 @@
         <v>0</v>
       </c>
       <c r="R245" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="246">

--- a/statistics/2024_principle_data.xlsx
+++ b/statistics/2024_principle_data.xlsx
@@ -14697,7 +14697,7 @@
         <v>0</v>
       </c>
       <c r="D246" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E246" t="n">
         <v>0</v>
@@ -14712,7 +14712,7 @@
         <v>0</v>
       </c>
       <c r="I246" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J246" t="n">
         <v>0</v>
@@ -14739,7 +14739,7 @@
         <v>0</v>
       </c>
       <c r="R246" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="247">

--- a/statistics/2024_principle_data.xlsx
+++ b/statistics/2024_principle_data.xlsx
@@ -14755,16 +14755,16 @@
         <v>0</v>
       </c>
       <c r="D247" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E247" t="n">
         <v>0</v>
       </c>
       <c r="F247" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G247" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H247" t="n">
         <v>0</v>
@@ -14797,7 +14797,7 @@
         <v>0</v>
       </c>
       <c r="R247" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="248">

--- a/statistics/2024_principle_data.xlsx
+++ b/statistics/2024_principle_data.xlsx
@@ -14813,7 +14813,7 @@
         <v>0</v>
       </c>
       <c r="D248" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E248" t="n">
         <v>0</v>
@@ -14822,7 +14822,7 @@
         <v>0</v>
       </c>
       <c r="G248" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H248" t="n">
         <v>0</v>
@@ -14855,7 +14855,7 @@
         <v>0</v>
       </c>
       <c r="R248" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="249">

--- a/statistics/2024_principle_data.xlsx
+++ b/statistics/2024_principle_data.xlsx
@@ -14868,16 +14868,16 @@
         </is>
       </c>
       <c r="C249" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D249" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E249" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F249" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G249" t="n">
         <v>0</v>
@@ -14886,7 +14886,7 @@
         <v>0</v>
       </c>
       <c r="I249" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J249" t="n">
         <v>0</v>
@@ -14913,7 +14913,7 @@
         <v>0</v>
       </c>
       <c r="R249" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="250">

--- a/statistics/2024_principle_data.xlsx
+++ b/statistics/2024_principle_data.xlsx
@@ -14926,25 +14926,25 @@
         </is>
       </c>
       <c r="C250" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D250" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E250" t="n">
         <v>0</v>
       </c>
       <c r="F250" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G250" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H250" t="n">
         <v>0</v>
       </c>
       <c r="I250" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J250" t="n">
         <v>0</v>
@@ -14962,7 +14962,7 @@
         <v>0</v>
       </c>
       <c r="O250" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P250" t="n">
         <v>0</v>
@@ -14971,7 +14971,7 @@
         <v>0</v>
       </c>
       <c r="R250" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="251">

--- a/statistics/2024_principle_data.xlsx
+++ b/statistics/2024_principle_data.xlsx
@@ -15042,25 +15042,25 @@
         </is>
       </c>
       <c r="C252" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D252" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E252" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F252" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G252" t="n">
         <v>0</v>
       </c>
       <c r="H252" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I252" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J252" t="n">
         <v>0</v>
@@ -15072,13 +15072,13 @@
         <v>0</v>
       </c>
       <c r="M252" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N252" t="n">
         <v>0</v>
       </c>
       <c r="O252" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P252" t="n">
         <v>0</v>
@@ -15087,7 +15087,7 @@
         <v>0</v>
       </c>
       <c r="R252" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="253">

--- a/statistics/2024_principle_data.xlsx
+++ b/statistics/2024_principle_data.xlsx
@@ -14984,16 +14984,16 @@
         </is>
       </c>
       <c r="C251" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D251" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E251" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F251" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G251" t="n">
         <v>0</v>
@@ -15002,7 +15002,7 @@
         <v>0</v>
       </c>
       <c r="I251" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J251" t="n">
         <v>0</v>
@@ -15014,13 +15014,13 @@
         <v>0</v>
       </c>
       <c r="M251" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N251" t="n">
         <v>0</v>
       </c>
       <c r="O251" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P251" t="n">
         <v>0</v>
@@ -15029,7 +15029,7 @@
         <v>0</v>
       </c>
       <c r="R251" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="252">
@@ -15042,52 +15042,52 @@
         </is>
       </c>
       <c r="C252" t="n">
+        <v>0</v>
+      </c>
+      <c r="D252" t="n">
+        <v>0</v>
+      </c>
+      <c r="E252" t="n">
+        <v>0</v>
+      </c>
+      <c r="F252" t="n">
+        <v>0</v>
+      </c>
+      <c r="G252" t="n">
+        <v>0</v>
+      </c>
+      <c r="H252" t="n">
+        <v>0</v>
+      </c>
+      <c r="I252" t="n">
+        <v>0</v>
+      </c>
+      <c r="J252" t="n">
+        <v>0</v>
+      </c>
+      <c r="K252" t="n">
+        <v>0</v>
+      </c>
+      <c r="L252" t="n">
+        <v>0</v>
+      </c>
+      <c r="M252" t="n">
+        <v>0</v>
+      </c>
+      <c r="N252" t="n">
+        <v>0</v>
+      </c>
+      <c r="O252" t="n">
+        <v>0</v>
+      </c>
+      <c r="P252" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q252" t="n">
+        <v>0</v>
+      </c>
+      <c r="R252" t="n">
         <v>1</v>
-      </c>
-      <c r="D252" t="n">
-        <v>1</v>
-      </c>
-      <c r="E252" t="n">
-        <v>1</v>
-      </c>
-      <c r="F252" t="n">
-        <v>1</v>
-      </c>
-      <c r="G252" t="n">
-        <v>0</v>
-      </c>
-      <c r="H252" t="n">
-        <v>1</v>
-      </c>
-      <c r="I252" t="n">
-        <v>1</v>
-      </c>
-      <c r="J252" t="n">
-        <v>0</v>
-      </c>
-      <c r="K252" t="n">
-        <v>0</v>
-      </c>
-      <c r="L252" t="n">
-        <v>0</v>
-      </c>
-      <c r="M252" t="n">
-        <v>1</v>
-      </c>
-      <c r="N252" t="n">
-        <v>0</v>
-      </c>
-      <c r="O252" t="n">
-        <v>1</v>
-      </c>
-      <c r="P252" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q252" t="n">
-        <v>0</v>
-      </c>
-      <c r="R252" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="253">

--- a/statistics/2024_principle_data.xlsx
+++ b/statistics/2024_principle_data.xlsx
@@ -15042,13 +15042,13 @@
         </is>
       </c>
       <c r="C252" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D252" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E252" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F252" t="n">
         <v>0</v>
@@ -15060,7 +15060,7 @@
         <v>0</v>
       </c>
       <c r="I252" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J252" t="n">
         <v>0</v>
@@ -15072,7 +15072,7 @@
         <v>0</v>
       </c>
       <c r="M252" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N252" t="n">
         <v>0</v>
@@ -15087,7 +15087,7 @@
         <v>0</v>
       </c>
       <c r="R252" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="253">
@@ -15103,7 +15103,7 @@
         <v>0</v>
       </c>
       <c r="D253" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E253" t="n">
         <v>0</v>
@@ -15145,7 +15145,7 @@
         <v>0</v>
       </c>
       <c r="R253" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="254">

--- a/statistics/2024_principle_data.xlsx
+++ b/statistics/2024_principle_data.xlsx
@@ -15161,13 +15161,13 @@
         <v>0</v>
       </c>
       <c r="D254" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E254" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F254" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G254" t="n">
         <v>0</v>
@@ -15176,7 +15176,7 @@
         <v>0</v>
       </c>
       <c r="I254" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J254" t="n">
         <v>0</v>
@@ -15194,7 +15194,7 @@
         <v>0</v>
       </c>
       <c r="O254" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P254" t="n">
         <v>0</v>
@@ -15203,7 +15203,7 @@
         <v>0</v>
       </c>
       <c r="R254" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="255">

--- a/statistics/2024_principle_data.xlsx
+++ b/statistics/2024_principle_data.xlsx
@@ -15222,7 +15222,7 @@
         <v>0</v>
       </c>
       <c r="E255" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F255" t="n">
         <v>0</v>
@@ -15261,7 +15261,7 @@
         <v>0</v>
       </c>
       <c r="R255" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="256">
@@ -15277,10 +15277,10 @@
         <v>0</v>
       </c>
       <c r="D256" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E256" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F256" t="n">
         <v>0</v>
@@ -15304,7 +15304,7 @@
         <v>0</v>
       </c>
       <c r="M256" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N256" t="n">
         <v>0</v>
@@ -15319,7 +15319,7 @@
         <v>0</v>
       </c>
       <c r="R256" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="257">

--- a/statistics/2024_principle_data.xlsx
+++ b/statistics/2024_principle_data.xlsx
@@ -15338,7 +15338,7 @@
         <v>0</v>
       </c>
       <c r="E257" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F257" t="n">
         <v>0</v>
@@ -15377,7 +15377,7 @@
         <v>0</v>
       </c>
       <c r="R257" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="258">
@@ -15396,7 +15396,7 @@
         <v>0</v>
       </c>
       <c r="E258" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F258" t="n">
         <v>0</v>
@@ -15426,7 +15426,7 @@
         <v>0</v>
       </c>
       <c r="O258" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P258" t="n">
         <v>0</v>
@@ -15435,7 +15435,7 @@
         <v>0</v>
       </c>
       <c r="R258" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="259">

--- a/statistics/2024_principle_data.xlsx
+++ b/statistics/2024_principle_data.xlsx
@@ -15448,16 +15448,16 @@
         </is>
       </c>
       <c r="C259" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D259" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E259" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F259" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G259" t="n">
         <v>0</v>
@@ -15466,7 +15466,7 @@
         <v>0</v>
       </c>
       <c r="I259" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J259" t="n">
         <v>0</v>
@@ -15484,7 +15484,7 @@
         <v>0</v>
       </c>
       <c r="O259" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P259" t="n">
         <v>0</v>
@@ -15493,7 +15493,7 @@
         <v>0</v>
       </c>
       <c r="R259" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="260">

--- a/statistics/2024_principle_data.xlsx
+++ b/statistics/2024_principle_data.xlsx
@@ -15512,7 +15512,7 @@
         <v>0</v>
       </c>
       <c r="E260" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F260" t="n">
         <v>0</v>
@@ -15542,7 +15542,7 @@
         <v>0</v>
       </c>
       <c r="O260" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P260" t="n">
         <v>0</v>
@@ -15551,7 +15551,7 @@
         <v>0</v>
       </c>
       <c r="R260" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="261">

--- a/statistics/2024_principle_data.xlsx
+++ b/statistics/2024_principle_data.xlsx
@@ -16028,10 +16028,10 @@
         </is>
       </c>
       <c r="C269" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D269" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E269" t="n">
         <v>0</v>
@@ -16073,7 +16073,7 @@
         <v>0</v>
       </c>
       <c r="R269" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="270">

--- a/statistics/2024_principle_data.xlsx
+++ b/statistics/2024_principle_data.xlsx
@@ -16147,10 +16147,10 @@
         <v>0</v>
       </c>
       <c r="D271" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E271" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F271" t="n">
         <v>0</v>
@@ -16174,7 +16174,7 @@
         <v>0</v>
       </c>
       <c r="M271" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N271" t="n">
         <v>0</v>
@@ -16189,7 +16189,7 @@
         <v>0</v>
       </c>
       <c r="R271" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="272">

--- a/statistics/2024_principle_data.xlsx
+++ b/statistics/2024_principle_data.xlsx
@@ -16202,16 +16202,16 @@
         </is>
       </c>
       <c r="C272" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D272" t="n">
         <v>0</v>
       </c>
       <c r="E272" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F272" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G272" t="n">
         <v>0</v>
@@ -16220,7 +16220,7 @@
         <v>0</v>
       </c>
       <c r="I272" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J272" t="n">
         <v>0</v>
@@ -16232,7 +16232,7 @@
         <v>0</v>
       </c>
       <c r="M272" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N272" t="n">
         <v>0</v>
@@ -16247,7 +16247,7 @@
         <v>0</v>
       </c>
       <c r="R272" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="273">

--- a/statistics/2024_principle_data.xlsx
+++ b/statistics/2024_principle_data.xlsx
@@ -16608,7 +16608,7 @@
         </is>
       </c>
       <c r="C279" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D279" t="n">
         <v>0</v>
@@ -16626,7 +16626,7 @@
         <v>0</v>
       </c>
       <c r="I279" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J279" t="n">
         <v>0</v>
@@ -16653,7 +16653,7 @@
         <v>0</v>
       </c>
       <c r="R279" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="280">
